--- a/results/result comparison.xlsx
+++ b/results/result comparison.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rick\OneDrive\projects\docker\titanic\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rick\Documents\Git\Kaggle-Titanic\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{DDF39482-6483-4822-A4AA-D86ABE33DE89}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{322D915C-8BD9-4195-B5DC-1299CE245CDD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC4F6F8-DD8E-4DD4-A8D8-2C656DE40DFF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19590" windowHeight="8850" activeTab="1" xr2:uid="{09C561D2-B0FE-4628-8D7B-B7B3F3F74796}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19590" windowHeight="8850" activeTab="2" xr2:uid="{09C561D2-B0FE-4628-8D7B-B7B3F3F74796}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad2" sheetId="2" r:id="rId1"/>
-    <sheet name="Blad1" sheetId="1" r:id="rId2"/>
+    <sheet name="Blad3" sheetId="3" r:id="rId2"/>
+    <sheet name="Blad1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
   <si>
     <t>Gradient boosted decision trees</t>
   </si>
@@ -64,38 +65,71 @@
     <t>Algorithm</t>
   </si>
   <si>
-    <t>ANN</t>
-  </si>
-  <si>
-    <t>Tensorflow untuned</t>
-  </si>
-  <si>
-    <t>Tensorflow tuned</t>
-  </si>
-  <si>
-    <t>MXNet untuned</t>
-  </si>
-  <si>
     <t>MXNet tuned</t>
   </si>
   <si>
-    <t>AzureML</t>
+    <t>ANN - MXNet</t>
   </si>
   <si>
-    <t>Execution speed</t>
+    <t>Two class decision forest</t>
   </si>
   <si>
-    <t>ANN - Tensorflow</t>
+    <t>Neural network</t>
   </si>
   <si>
-    <t>ANN - MXNet</t>
+    <t>78.46%</t>
+  </si>
+  <si>
+    <t>Tensorflow</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>XGBoost</t>
+  </si>
+  <si>
+    <t>SVM Scikit</t>
+  </si>
+  <si>
+    <t>Gradient boosted decision trees in Azure</t>
+  </si>
+  <si>
+    <t>SVM in Azure</t>
+  </si>
+  <si>
+    <t>Azure neural network</t>
+  </si>
+  <si>
+    <t>Prediction performance</t>
+  </si>
+  <si>
+    <t>Algorith (untuned)</t>
+  </si>
+  <si>
+    <t>Algorithm (tuned)</t>
+  </si>
+  <si>
+    <t>MXNet neural network</t>
+  </si>
+  <si>
+    <t>Training time</t>
+  </si>
+  <si>
+    <t>ANN - TensorFlow</t>
+  </si>
+  <si>
+    <t>TensorFlow neural network</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +148,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -139,7 +180,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -164,6 +205,45 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -171,12 +251,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -195,18 +315,283 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Procent" xfId="1" builtinId="5"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -217,6 +602,3010 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Training time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Training time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$A$14:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>XGBoost</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ANN - TensorFlow</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ANN - MXNet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$B$14:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3D05-47BB-8679-A1DBC5C2910E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="637203840"/>
+        <c:axId val="637204168"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="637203840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="637204168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="637204168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="637203840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Prediction performance (Untuned)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prediction performance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$A$33:$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>TensorFlow neural network</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Azure neural network</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SVM Scikit</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SVM in Azure</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>XGBoost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Gradient boosted decision trees in Azure</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MXNet neural network</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$B$33:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77029999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77029999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.746</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.746</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BC52-4404-B233-74D8BBF12EDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="529980664"/>
+        <c:axId val="529981320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="529980664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="529981320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="529981320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="529980664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Prediction performance (Tuned)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prediction performance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$A$24:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Gradient boosted decision trees in Azure</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM Scikit</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SVM in Azure</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>XGBoost</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TensorFlow neural network</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Azure neural network</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$B$24:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.78500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-00C5-490E-9B6D-0EDAD64420B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="635724792"/>
+        <c:axId val="635726104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="635724792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="635726104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="635726104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="635724792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Grafiek 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B382ED3-D1FE-4780-8E3D-4389BF7DD3C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Grafiek 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB39CF17-64D6-4F30-A44B-4F535BF9FAC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Grafiek 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66F5E3E1-A137-4729-A7AF-1DAA7D1B30AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20331FC7-27CF-4D2D-B516-09D4BA43A28C}" name="Tabel1" displayName="Tabel1" ref="A13:B17" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
+  <autoFilter ref="A13:B17" xr:uid="{31DDD75C-5BC4-4236-B59D-AC1722F14DF2}"/>
+  <sortState ref="A14:B17">
+    <sortCondition ref="B13:B17"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{486598DC-2C1E-4CE9-8874-5EF742ED3765}" name="Algorithm" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{0E050A9C-A2A4-46C6-A242-1A701BB5844D}" name="Training time" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{819F5FA9-2565-4D17-96EF-43CC2F7BEC17}" name="Tabel2" displayName="Tabel2" ref="A23:B29" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+  <autoFilter ref="A23:B29" xr:uid="{7B2672F9-C14A-4135-9677-0D9D7FB90A6B}"/>
+  <sortState ref="A24:B29">
+    <sortCondition descending="1" ref="B23:B29"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{D3AC13A4-343D-4911-80F3-93A898BEABE6}" name="Algorithm (tuned)" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{918C4047-0EEF-4D47-86CF-DFDF5F3240F8}" name="Prediction performance" dataDxfId="6" dataCellStyle="Procent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B63019C2-6E71-42B3-9A91-66684AE12687}" name="Tabel3" displayName="Tabel3" ref="A32:B39" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="3" tableBorderDxfId="4">
+  <autoFilter ref="A32:B39" xr:uid="{AB9598F9-A5E7-4BA1-8980-31171FAA7813}"/>
+  <sortState ref="A33:B39">
+    <sortCondition descending="1" ref="B32:B39"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{3A37D498-3789-4F0B-BC78-2FBF6C17751B}" name="Algorith (untuned)" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{7867DA00-D77F-40C9-A30F-C349670D6A4A}" name="Prediction performance" dataDxfId="1" dataCellStyle="Procent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -529,29 +3918,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B536FF-3767-4C22-941E-FD1D36D3B46F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C607F485-6AA3-4D68-B4A2-43784E3B8DA2}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="7" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -622,99 +4026,314 @@
         <v>0.78500000000000003</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.76</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.75109999999999999</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
+      <c r="A6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.77900000000000003</v>
-      </c>
-      <c r="C8" s="2">
-        <v>76.55</v>
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0.78</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="4">
-        <v>0.76</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.76029999999999998</v>
+      <c r="B10" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="9" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="9"/>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0.78459999999999996</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0.78</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0.62</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="10">
-        <v>0.77900000000000003</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+    <row r="12" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="21">
+        <v>6.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
+      <c r="A15" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="21">
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="21">
+        <v>15.73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="25">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="26">
+        <v>0.78500000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="26">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="26">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B16">
-        <v>2309.1999999999998</v>
+      <c r="B27" s="26">
+        <v>0.78</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="26">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="27">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="26">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="26">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
         <v>20</v>
+      </c>
+      <c r="B35" s="26">
+        <v>0.77029999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="26">
+        <v>0.77029999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="26">
+        <v>0.746</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="26">
+        <v>0.746</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="29">
+        <v>0.62</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="3">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
 </worksheet>
 </file>